--- a/System Analystic.xlsx
+++ b/System Analystic.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Objects Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -882,7 +883,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
